--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,79 +70,88 @@
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
+    <t>share</t>
   </si>
   <si>
     <t>protect</t>
@@ -158,9 +167,6 @@
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -524,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -693,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6952054794520548</v>
+        <v>0.6917808219178082</v>
       </c>
       <c r="C5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -743,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3624161073825503</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3466666666666667</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3197674418604651</v>
+        <v>0.3507751937984496</v>
       </c>
       <c r="C8">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D8">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2804232804232804</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8046875</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1746031746031746</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1018766756032172</v>
+        <v>0.1045576407506702</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.828125</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L11">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M11">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1049,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8275862068965517</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1069,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7916666666666666</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1095,13 +1101,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1113,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1121,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1139,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1147,13 +1153,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7605633802816901</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1165,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1173,13 +1179,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7075471698113207</v>
+        <v>0.69375</v>
       </c>
       <c r="L17">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1191,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1199,13 +1205,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.70625</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L18">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="M18">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1217,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1225,13 +1231,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.5900783289817232</v>
       </c>
       <c r="L19">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="M19">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1243,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1251,13 +1257,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1269,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1277,13 +1283,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.62</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1295,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1303,13 +1309,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6135770234986945</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L22">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="M22">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1321,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1329,13 +1335,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5735294117647058</v>
+        <v>0.54</v>
       </c>
       <c r="L23">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1347,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1381,13 +1387,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4915254237288136</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="L25">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M25">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1399,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1407,13 +1413,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4615384615384616</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1425,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1433,13 +1439,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4476987447698745</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L27">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1451,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1459,13 +1465,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.410958904109589</v>
+        <v>0.4375</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1477,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1485,25 +1491,25 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.1052631578947368</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L29">
+        <v>34</v>
+      </c>
+      <c r="M29">
+        <v>34</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>44</v>
-      </c>
-      <c r="M29">
-        <v>44</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>374</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1511,13 +1517,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.09615384615384616</v>
+        <v>0.4</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1529,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>376</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1537,13 +1543,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.06040268456375839</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L31">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>840</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1563,13 +1569,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.04994450610432852</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1581,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>856</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1589,13 +1595,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.02883506343713956</v>
+        <v>0.08413461538461539</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>842</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1615,25 +1621,25 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.01963534361851332</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N34">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>2097</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1641,25 +1647,77 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.01322154143824573</v>
+        <v>0.048834628190899</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N35">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>3060</v>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>0.02431042543244507</v>
+      </c>
+      <c r="L36">
+        <v>52</v>
+      </c>
+      <c r="M36">
+        <v>56</v>
+      </c>
+      <c r="N36">
+        <v>0.93</v>
+      </c>
+      <c r="O36">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>0.01129032258064516</v>
+      </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>42</v>
+      </c>
+      <c r="N37">
+        <v>0.83</v>
+      </c>
+      <c r="O37">
+        <v>0.17</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3065</v>
       </c>
     </row>
   </sheetData>
